--- a/Задание.xlsx
+++ b/Задание.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nik.lebedev/Downloads/Telegram Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976446B0-499B-0B4C-B1CD-F54AEF7B26F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E4DC6E-13CD-F640-BD3E-070BB897CF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="800" windowWidth="28040" windowHeight="17300" activeTab="1" xr2:uid="{17D4E800-8D04-D448-8C26-B534D3C32239}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
   <si>
     <t>CAPEX</t>
   </si>
@@ -291,6 +291,15 @@
     <t>Ликвидационная стоимость</t>
   </si>
   <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>FCF инвесторов (полностью в период 0, далее 30%</t>
+  </si>
+  <si>
+    <t>При разработке только сканеров только для мяса</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -311,22 +320,13 @@
         <scheme val="minor"/>
       </rPr>
       <t>:
-Вы владелец стартапа, который разрабатывает новые сканеры для пищевой промышленности, которые будут анализировать просрочен продукт или нет. Вы нашли инвесторов, которые готовы вложиться в ваш продукт на первой стадии за 30% компании, если вы докажете, что инвесторы, получая 30% FCF окупят свои вложения (инвесторы полностью покроют стартовые вложения в период 0, дальнейшие инвестиции из операционного дохода)
+Вы владелец стартапа, который разрабатывает новые сканеры для пищевой промышленности, которые будут анализировать просрочен продукт или нет.
 Вы провели исследование среди производителей и продавцов пищевой промышленности и обнаружили спрос на продукт со стороны производителей мяса и готовой еды. Однако разработка сканеров для готовой еды потребует дополнительных затрат относительно сканеров для мяса.
 Вам нужно ответить на вопросы:
-1. Окупятся ли вложения в продукт?
-2. Увеличит ли стоимость компании инвестиция в доработку сканеров для готовой еды с точки зрения модели DCF
+1. Окупятся ли вложения в продукт? Посчитайте NPV
+2. Увеличит ли стоимость компании инвестиция в доработку сканеров для готовой еды с точки зрения модели DCF? Посчитайте NPV
 Вы ожидаете, что в течении 10ти лет будет разработан сканер на основании фотографий и ваша проект будет закрыт с 0 ликвидационной стоимостью</t>
     </r>
-  </si>
-  <si>
-    <t>NPV</t>
-  </si>
-  <si>
-    <t>FCF инвесторов (полностью в период 0, далее 30%</t>
-  </si>
-  <si>
-    <t>При разработке только сканеров только для мяса</t>
   </si>
 </sst>
 </file>
@@ -511,6 +511,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -520,9 +523,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A7035C-D300-5848-91B7-60EBC369694A}">
   <dimension ref="B2:R112"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A51" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C78" sqref="C49:H78"/>
+    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -871,116 +871,116 @@
       <c r="F2" s="4"/>
     </row>
     <row r="4" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
@@ -1081,10 +1081,10 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="31"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="8"/>
@@ -1970,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F71DDC-DAA6-F546-A8E5-A56800A25D31}">
-  <dimension ref="B2:M98"/>
+  <dimension ref="B2:M97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1995,160 +1995,160 @@
       <c r="F2" s="4"/>
     </row>
     <row r="4" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="B4" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
@@ -2176,7 +2176,7 @@
       <c r="B22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="27">
         <v>90000</v>
       </c>
       <c r="D22" t="s">
@@ -2187,7 +2187,7 @@
       <c r="B23" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="27">
         <v>150000</v>
       </c>
       <c r="D23" t="s">
@@ -2222,7 +2222,7 @@
       <c r="B28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="27">
         <v>15000000</v>
       </c>
       <c r="D28" t="s">
@@ -2236,7 +2236,7 @@
       <c r="B29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="27">
         <v>50000000</v>
       </c>
       <c r="D29" t="s">
@@ -2250,7 +2250,7 @@
       <c r="B30" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="27">
         <v>35000000</v>
       </c>
       <c r="E30" s="6"/>
@@ -2259,7 +2259,7 @@
       <c r="B31" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="27">
         <v>5000000</v>
       </c>
       <c r="D31" t="s">
@@ -2271,14 +2271,14 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="8"/>
-      <c r="C32" s="30"/>
+      <c r="C32" s="27"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="27">
         <v>5</v>
       </c>
       <c r="D33" t="s">
@@ -2290,7 +2290,7 @@
       <c r="B34" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="27">
         <v>0</v>
       </c>
       <c r="E34" s="6"/>
@@ -2303,7 +2303,7 @@
       <c r="B36" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="27">
         <v>10000</v>
       </c>
       <c r="D36" t="s">
@@ -2314,7 +2314,7 @@
       <c r="B37" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="27">
         <v>5000</v>
       </c>
       <c r="D37" t="s">
@@ -2411,32 +2411,32 @@
         <v>54</v>
       </c>
       <c r="C48" s="8"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="8"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="8"/>
@@ -2473,7 +2473,7 @@
         <v>67</v>
       </c>
       <c r="C52" s="8"/>
-      <c r="D52" s="30"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -2626,12 +2626,12 @@
       <c r="B62" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
       <c r="K62" s="24"/>
@@ -2668,7 +2668,7 @@
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
     </row>
-    <row r="65" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="24" t="s">
         <v>2</v>
       </c>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -2748,13 +2748,13 @@
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="14"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>46</v>
@@ -2801,32 +2801,32 @@
         <v>54</v>
       </c>
       <c r="C75" s="8"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="30"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="27"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B76" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C76" s="8"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="30"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="8"/>
@@ -2863,7 +2863,7 @@
         <v>67</v>
       </c>
       <c r="C79" s="8"/>
-      <c r="D79" s="30"/>
+      <c r="D79" s="27"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -3016,12 +3016,12 @@
       <c r="B89" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
       <c r="I89" s="24"/>
       <c r="J89" s="24"/>
       <c r="K89" s="24"/>
@@ -3105,42 +3105,26 @@
       <c r="M94" s="13"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B95" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="13"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="13"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B96" s="12" t="s">
+      <c r="B95" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B98" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C98" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Задание.xlsx
+++ b/Задание.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nik.lebedev/Downloads/Telegram Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E4DC6E-13CD-F640-BD3E-070BB897CF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52209F45-3C09-4C48-AC4D-5FAB2831FD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="800" windowWidth="28040" windowHeight="17300" activeTab="1" xr2:uid="{17D4E800-8D04-D448-8C26-B534D3C32239}"/>
+    <workbookView xWindow="3760" yWindow="760" windowWidth="28040" windowHeight="17300" activeTab="1" xr2:uid="{17D4E800-8D04-D448-8C26-B534D3C32239}"/>
   </bookViews>
   <sheets>
     <sheet name="V 1 Внутри корпорации" sheetId="1" r:id="rId1"/>
@@ -1972,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F71DDC-DAA6-F546-A8E5-A56800A25D31}">
   <dimension ref="B2:M97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2177,7 +2177,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="27">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="D22" t="s">
         <v>52</v>

--- a/Задание.xlsx
+++ b/Задание.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nik.lebedev/Downloads/Telegram Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52209F45-3C09-4C48-AC4D-5FAB2831FD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBEF5E1-1F6E-1149-B6AC-51CFB848882E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="760" windowWidth="28040" windowHeight="17300" activeTab="1" xr2:uid="{17D4E800-8D04-D448-8C26-B534D3C32239}"/>
+    <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17300" xr2:uid="{17D4E800-8D04-D448-8C26-B534D3C32239}"/>
   </bookViews>
   <sheets>
     <sheet name="V 1 Внутри корпорации" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
   <si>
     <t>CAPEX</t>
   </si>
@@ -107,36 +107,9 @@
     <t>Разработаем всю систему за 0ой период</t>
   </si>
   <si>
-    <t>Количество обработанных клиентов в сегменте High</t>
-  </si>
-  <si>
-    <t>Количество обработанных клиентов в сегменте Low</t>
-  </si>
-  <si>
-    <t>Количество вернувшихся клиентов в сегменте High</t>
-  </si>
-  <si>
-    <t>Количество вернувшихся клиентов в сегменте Low</t>
-  </si>
-  <si>
     <t>Стоимость сервиса и стоимость обработки 1 клиента будут расти на</t>
   </si>
   <si>
-    <t>Выручка с 1 клиента Low</t>
-  </si>
-  <si>
-    <t>Выручка с 1 клиента High</t>
-  </si>
-  <si>
-    <t>Затраты на обработку 1 клиента</t>
-  </si>
-  <si>
-    <t>Выручка с сегмента High</t>
-  </si>
-  <si>
-    <t>Выручка с сегмента Low</t>
-  </si>
-  <si>
     <t>Амортизация линейная, каждый год равными долями на протяжении</t>
   </si>
   <si>
@@ -147,12 +120,6 @@
   </si>
   <si>
     <t>Ставка налога</t>
-  </si>
-  <si>
-    <t>FCF</t>
-  </si>
-  <si>
-    <t>DFCF (дисконтированный FCF)</t>
   </si>
   <si>
     <t>TV</t>
@@ -195,12 +162,6 @@
     </r>
   </si>
   <si>
-    <t>Затраты на продажи</t>
-  </si>
-  <si>
-    <t>Затраты на поддержание сервиса</t>
-  </si>
-  <si>
     <t>периоды&gt;&gt;&gt;</t>
   </si>
   <si>
@@ -225,12 +186,6 @@
     <t>При разработке только сканеров обоих типов</t>
   </si>
   <si>
-    <t>Количество продаж в сегменте "Мясо"</t>
-  </si>
-  <si>
-    <t>Количество продаж в сегменте "Готовая еда"</t>
-  </si>
-  <si>
     <t>Разработка будет завершена за период 0</t>
   </si>
   <si>
@@ -252,9 +207,6 @@
     <t>Количество продаж будет расти в каждом сегменте с 1 по 5ый год на</t>
   </si>
   <si>
-    <t>Выручка с продажи 1 сканера</t>
-  </si>
-  <si>
     <t xml:space="preserve">Рост себестоимости и стоимости сканеров в год </t>
   </si>
   <si>
@@ -264,24 +216,9 @@
     <t>Себестоимость одного сканера в периоде 1</t>
   </si>
   <si>
-    <t>Себестоимость 1 сканера</t>
-  </si>
-  <si>
-    <t>Выручка с сегмента "Мясо"</t>
-  </si>
-  <si>
-    <t>Выручка с сегмента "Готовая еда"</t>
-  </si>
-  <si>
     <t>Себестоимость продаж от выручки</t>
   </si>
   <si>
-    <t>Затраты на продажу</t>
-  </si>
-  <si>
-    <t>Затраты на производство</t>
-  </si>
-  <si>
     <t>Затраты на строительство производственной линии</t>
   </si>
   <si>
@@ -292,9 +229,6 @@
   </si>
   <si>
     <t>NPV</t>
-  </si>
-  <si>
-    <t>FCF инвесторов (полностью в период 0, далее 30%</t>
   </si>
   <si>
     <t>При разработке только сканеров только для мяса</t>
@@ -327,6 +261,18 @@
 2. Увеличит ли стоимость компании инвестиция в доработку сканеров для готовой еды с точки зрения модели DCF? Посчитайте NPV
 Вы ожидаете, что в течении 10ти лет будет разработан сканер на основании фотографий и ваша проект будет закрыт с 0 ликвидационной стоимостью</t>
     </r>
+  </si>
+  <si>
+    <t>Выручка</t>
+  </si>
+  <si>
+    <t>…..</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>….</t>
   </si>
 </sst>
 </file>
@@ -841,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A7035C-D300-5848-91B7-60EBC369694A}">
   <dimension ref="B2:R112"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,7 +818,7 @@
     </row>
     <row r="4" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
@@ -1028,7 +974,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C20" s="10">
         <v>0.05</v>
@@ -1054,13 +1000,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C23" s="9">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E23" s="6"/>
     </row>
@@ -1092,7 +1038,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C28" s="11">
         <v>0.1</v>
@@ -1119,7 +1065,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C32" s="11">
         <v>0.2</v>
@@ -1143,7 +1089,7 @@
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C36" s="9">
         <v>150000</v>
@@ -1179,7 +1125,7 @@
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C41" s="9">
         <v>12000</v>
@@ -1208,7 +1154,7 @@
         <v>21</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
@@ -1244,7 +1190,7 @@
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="13"/>
@@ -1261,9 +1207,7 @@
       <c r="O49" s="7"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -1279,9 +1223,7 @@
       <c r="O50" s="7"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -1297,9 +1239,7 @@
       <c r="O51" s="7"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -1324,9 +1264,7 @@
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -1342,9 +1280,7 @@
       <c r="O54" s="7"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -1369,9 +1305,7 @@
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
@@ -1397,7 +1331,7 @@
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="22" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="23"/>
@@ -1408,7 +1342,7 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="19" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
@@ -1425,9 +1359,7 @@
       <c r="O60" s="5"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="B61" s="19"/>
       <c r="C61" s="8"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -1530,7 +1462,7 @@
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="19" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
@@ -1547,9 +1479,7 @@
       <c r="O67" s="5"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B68" s="19" t="s">
-        <v>45</v>
-      </c>
+      <c r="B68" s="19"/>
       <c r="C68" s="8"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -1601,9 +1531,7 @@
       <c r="H71" s="8"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="16" t="s">
-        <v>37</v>
-      </c>
+      <c r="B72" s="16"/>
       <c r="C72" s="17"/>
       <c r="D72" s="18"/>
       <c r="E72" s="18"/>
@@ -1619,9 +1547,7 @@
       <c r="O72" s="5"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B73" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="B73" s="12"/>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
@@ -1638,25 +1564,25 @@
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C75" s="13"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C76" s="13"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C78" s="14"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
@@ -1682,7 +1608,7 @@
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="8" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="13"/>
@@ -1692,9 +1618,7 @@
       <c r="H83" s="13"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
@@ -1703,9 +1627,7 @@
       <c r="H84" s="13"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
@@ -1714,9 +1636,7 @@
       <c r="H85" s="13"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
@@ -1734,9 +1654,7 @@
       <c r="H87" s="8"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
@@ -1745,9 +1663,7 @@
       <c r="H88" s="13"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B89" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
@@ -1765,9 +1681,7 @@
       <c r="H90" s="8"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
@@ -1786,7 +1700,7 @@
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93" s="22" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C93" s="22"/>
       <c r="D93" s="23"/>
@@ -1797,7 +1711,7 @@
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94" s="19" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="9"/>
@@ -1807,9 +1721,7 @@
       <c r="H94" s="9"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B95" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="B95" s="19"/>
       <c r="C95" s="8"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
@@ -1870,7 +1782,7 @@
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B101" s="19" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="9"/>
@@ -1880,9 +1792,7 @@
       <c r="H101" s="9"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="19" t="s">
-        <v>45</v>
-      </c>
+      <c r="B102" s="19"/>
       <c r="C102" s="8"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -1920,9 +1830,7 @@
       <c r="H105" s="8"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B106" s="16" t="s">
-        <v>37</v>
-      </c>
+      <c r="B106" s="16"/>
       <c r="C106" s="17"/>
       <c r="D106" s="18"/>
       <c r="E106" s="18"/>
@@ -1931,9 +1839,7 @@
       <c r="H106" s="18"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B107" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="B107" s="12"/>
       <c r="C107" s="14"/>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
@@ -1943,19 +1849,19 @@
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B109" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C109" s="13"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B110" s="8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C110" s="13"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B112" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C112" s="14"/>
     </row>
@@ -1970,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F71DDC-DAA6-F546-A8E5-A56800A25D31}">
-  <dimension ref="B2:M97"/>
+  <dimension ref="B2:M96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1996,7 +1902,7 @@
     </row>
     <row r="4" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
@@ -2163,7 +2069,7 @@
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C19" s="21"/>
     </row>
@@ -2174,29 +2080,29 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C22" s="27">
         <v>100000</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C23" s="27">
         <v>150000</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C24" s="11">
         <v>0.1</v>
@@ -2208,7 +2114,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C26" s="11">
         <v>0.3</v>
@@ -2220,35 +2126,35 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C28" s="27">
         <v>15000000</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C29" s="27">
         <v>50000000</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C30" s="27">
         <v>35000000</v>
@@ -2257,16 +2163,16 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C31" s="27">
         <v>5000000</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
@@ -2276,19 +2182,19 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C33" s="27">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C34" s="27">
         <v>0</v>
@@ -2301,7 +2207,7 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C36" s="27">
         <v>10000</v>
@@ -2312,7 +2218,7 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C37" s="27">
         <v>5000</v>
@@ -2323,7 +2229,7 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C38" s="11">
         <v>0.2</v>
@@ -2338,7 +2244,7 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C40" s="10">
         <v>0.9</v>
@@ -2364,10 +2270,10 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
@@ -2408,7 +2314,7 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="27"/>
@@ -2423,9 +2329,7 @@
       <c r="M48" s="27"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B49" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
@@ -2453,9 +2357,7 @@
       <c r="M50" s="8"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B51" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -2469,9 +2371,7 @@
       <c r="M51" s="9"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B52" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="27"/>
       <c r="E52" s="9"/>
@@ -2500,7 +2400,7 @@
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="22" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="23"/>
@@ -2516,7 +2416,7 @@
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="19" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
@@ -2531,9 +2431,7 @@
       <c r="M55" s="9"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B56" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="B56" s="19"/>
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -2578,7 +2476,7 @@
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="19" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="13"/>
@@ -2593,9 +2491,7 @@
       <c r="M59" s="13"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B60" s="19" t="s">
-        <v>72</v>
-      </c>
+      <c r="B60" s="19"/>
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -2700,7 +2596,7 @@
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="8" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -2715,91 +2611,89 @@
       <c r="M67" s="13"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B68" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B69" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B71" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" s="14"/>
+      <c r="B68" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B70" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="14"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>46</v>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8">
+        <v>0</v>
+      </c>
+      <c r="D73" s="8">
+        <v>1</v>
+      </c>
+      <c r="E73" s="8">
+        <v>2</v>
+      </c>
+      <c r="F73" s="8">
+        <v>3</v>
+      </c>
+      <c r="G73" s="8">
+        <v>4</v>
+      </c>
+      <c r="H73" s="8">
+        <v>5</v>
+      </c>
+      <c r="I73" s="8">
+        <v>6</v>
+      </c>
+      <c r="J73" s="8">
+        <v>7</v>
+      </c>
+      <c r="K73" s="8">
+        <v>8</v>
+      </c>
+      <c r="L73" s="8">
+        <v>9</v>
+      </c>
+      <c r="M73" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B74" s="8"/>
-      <c r="C74" s="8">
-        <v>0</v>
-      </c>
-      <c r="D74" s="8">
-        <v>1</v>
-      </c>
-      <c r="E74" s="8">
-        <v>2</v>
-      </c>
-      <c r="F74" s="8">
-        <v>3</v>
-      </c>
-      <c r="G74" s="8">
-        <v>4</v>
-      </c>
-      <c r="H74" s="8">
-        <v>5</v>
-      </c>
-      <c r="I74" s="8">
-        <v>6</v>
-      </c>
-      <c r="J74" s="8">
-        <v>7</v>
-      </c>
-      <c r="K74" s="8">
-        <v>8</v>
-      </c>
-      <c r="L74" s="8">
-        <v>9</v>
-      </c>
-      <c r="M74" s="8">
-        <v>10</v>
-      </c>
+      <c r="B74" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B75" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
@@ -2813,41 +2707,37 @@
       <c r="M75" s="27"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B76" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="27"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B78" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="B78" s="8"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="9"/>
+      <c r="D78" s="27"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -2859,55 +2749,53 @@
       <c r="M78" s="9"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B79" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="B79" s="8"/>
       <c r="C79" s="8"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
+      <c r="B80" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="22"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B81" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81" s="22"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="23"/>
+      <c r="B81" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B82" s="19" t="s">
-        <v>68</v>
-      </c>
+      <c r="B82" s="19"/>
       <c r="C82" s="8"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -2921,210 +2809,192 @@
       <c r="M82" s="9"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B83" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="B83" s="8"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
+      <c r="B84" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B85" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
+      <c r="B85" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B86" s="19" t="s">
-        <v>71</v>
-      </c>
+      <c r="B86" s="19"/>
       <c r="C86" s="8"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B87" s="19" t="s">
-        <v>72</v>
-      </c>
+      <c r="B87" s="8"/>
       <c r="C87" s="8"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
+      <c r="B88" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B89" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
+      <c r="B89" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B90" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
+      <c r="B91" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="25"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B92" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="24"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="25"/>
-      <c r="M92" s="25"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
+      <c r="B93" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B94" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B95" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B97" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C97" s="14"/>
+      <c r="B94" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B96" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
